--- a/Notecarrier-B/v12/Notecarrier-B BOM v12.xlsx
+++ b/Notecarrier-B/v12/Notecarrier-B BOM v12.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RD\ENG\BLUES\2017-3047\SCH\V12\NOTECARRIER-M2-B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwied\Documents\repositories\note-hardware\Notecarrier-B\v12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF57D0F6-2F4F-4599-BDA4-1B42BF21FBA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47397FC5-2F3C-4548-9C68-75EDDB77B9E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">BOM!$A$6:$K$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$A$6:$I$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="167">
   <si>
     <t>Item</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>Distributor</t>
-  </si>
-  <si>
     <t>Package</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Database</t>
-  </si>
-  <si>
     <t>PROJECT</t>
   </si>
   <si>
@@ -92,18 +86,12 @@
     <t>TG150</t>
   </si>
   <si>
-    <t>FAE</t>
-  </si>
-  <si>
     <t>C7,C10,C111,C115,C116</t>
   </si>
   <si>
     <t>100n/16V</t>
   </si>
   <si>
-    <t>CHIP CAP.CER. 100nF 16V 10% X7R 0402</t>
-  </si>
-  <si>
     <t>SMD</t>
   </si>
   <si>
@@ -116,9 +104,6 @@
     <t>10u/6.3V-X5R</t>
   </si>
   <si>
-    <t>CHIP CAP.CER. 10uF 6.3V 20% X5R 0402</t>
-  </si>
-  <si>
     <t>-55°..+85°</t>
   </si>
   <si>
@@ -128,9 +113,6 @@
     <t>47u/16V-X5R</t>
   </si>
   <si>
-    <t>CHIP CAP.CER. 47uF 16V 20% X5R 1206</t>
-  </si>
-  <si>
     <t>CS-C-1206</t>
   </si>
   <si>
@@ -140,18 +122,12 @@
     <t>4.7u/6.3V-X5R</t>
   </si>
   <si>
-    <t>CHIP CAP.CER. 4.7uF 6.3V 20% X5R 0402</t>
-  </si>
-  <si>
     <t>C15,C16</t>
   </si>
   <si>
     <t>10u/10V-X5R</t>
   </si>
   <si>
-    <t>CHIP CAP.CER. 10uF 10V 10% X5R 0603</t>
-  </si>
-  <si>
     <t>CS-C-0603</t>
   </si>
   <si>
@@ -161,18 +137,12 @@
     <t>10n/1kV</t>
   </si>
   <si>
-    <t>CHIP CAP.CER. 10nF 1000V 10% X7R 1206</t>
-  </si>
-  <si>
     <t>DS14</t>
   </si>
   <si>
     <t>STPS3H100U</t>
   </si>
   <si>
-    <t>DIODO SCHOTTKY 3A 100V STPS3H100U SMB SMT</t>
-  </si>
-  <si>
     <t>SMB</t>
   </si>
   <si>
@@ -182,9 +152,6 @@
     <t>FSV1045V</t>
   </si>
   <si>
-    <t>DIODO SCHOTTKY 10A 45V FSV1045V TO277-3 SMT</t>
-  </si>
-  <si>
     <t>-55°..+150°</t>
   </si>
   <si>
@@ -197,9 +164,6 @@
     <t>SF-0603F150-2</t>
   </si>
   <si>
-    <t>FUSIBILE RAPIDO 1.5A 32V 0603 SF-0603F150-2 BOURNS SMT</t>
-  </si>
-  <si>
     <t>-40°..+105°</t>
   </si>
   <si>
@@ -215,9 +179,6 @@
     <t>0603SFV350F/32-2</t>
   </si>
   <si>
-    <t>FUSIBILE RAPIDO 3.5A 32V 0603 0603SFV350F/32-2 LITTELFUSE SMT</t>
-  </si>
-  <si>
     <t>-55°..+125°</t>
   </si>
   <si>
@@ -233,9 +194,6 @@
     <t>10118192-0001LF</t>
   </si>
   <si>
-    <t>CONN. USB F/90° TIPO MICRO-B C.S. 10118192-0001LF FCI SMT</t>
-  </si>
-  <si>
     <t>-30°..+85°</t>
   </si>
   <si>
@@ -248,9 +206,6 @@
     <t>MDT420E01001</t>
   </si>
   <si>
-    <t>CONN. M.2 75P M/90° P=0.5 MDT420E01001 AMPHENOL SMT</t>
-  </si>
-  <si>
     <t>-40°..+80°</t>
   </si>
   <si>
@@ -260,12 +215,6 @@
     <t>J21</t>
   </si>
   <si>
-    <t>STRIP 9 PIN</t>
-  </si>
-  <si>
-    <t>STRIP 1P M/D P=2.54 CH3140V100</t>
-  </si>
-  <si>
     <t>THT</t>
   </si>
   <si>
@@ -284,9 +233,6 @@
     <t>1285AS-H-2R2M=P2</t>
   </si>
   <si>
-    <t>INDUTTANZA 2.2uH 1.5A 20% 0806 1285AS-H-2R2M=P2 MURATA SMT</t>
-  </si>
-  <si>
     <t>-40°..+85°</t>
   </si>
   <si>
@@ -299,9 +245,6 @@
     <t>XFL4020-222MEC</t>
   </si>
   <si>
-    <t>INDUTTANZA 2.2 uH 3.1A 20% XFL4020-222MEC COILCRAFT SMT</t>
-  </si>
-  <si>
     <t>-40°..+125°</t>
   </si>
   <si>
@@ -314,9 +257,6 @@
     <t>9774025151R</t>
   </si>
   <si>
-    <t>DISTANZ. CIL. METALLO 5.1X2.5 9774025151R W.E SMT</t>
-  </si>
-  <si>
     <t>DIST-WASMSIM0250</t>
   </si>
   <si>
@@ -338,9 +278,6 @@
     <t>100R/5%</t>
   </si>
   <si>
-    <t>RETE RESISTIVA 8R sing. 100R 5% 1506 CAY16-101J8LF BOURNS SMT</t>
-  </si>
-  <si>
     <t>RR-8X-1506</t>
   </si>
   <si>
@@ -350,9 +287,6 @@
     <t>82k</t>
   </si>
   <si>
-    <t>CHIP RES. 82K 0402 1/16W 1%</t>
-  </si>
-  <si>
     <t>-55°..+155°</t>
   </si>
   <si>
@@ -365,18 +299,12 @@
     <t>10M/5%</t>
   </si>
   <si>
-    <t>CHIP RES. 10M 0402 1/8W 5%</t>
-  </si>
-  <si>
     <t>R307</t>
   </si>
   <si>
     <t>1M</t>
   </si>
   <si>
-    <t>CHIP RES. 1M 1206 1/4W 1%</t>
-  </si>
-  <si>
     <t>RS-1206</t>
   </si>
   <si>
@@ -386,9 +314,6 @@
     <t>0R/5%/AS</t>
   </si>
   <si>
-    <t>CHIP RES. 0R 0805 1/8W 5% ANTI-SULFUR</t>
-  </si>
-  <si>
     <t>RS-0805</t>
   </si>
   <si>
@@ -398,27 +323,18 @@
     <t>0R</t>
   </si>
   <si>
-    <t>CHIP RES. 0R 0402 1/16W 1%</t>
-  </si>
-  <si>
     <t>R319</t>
   </si>
   <si>
     <t>1k</t>
   </si>
   <si>
-    <t>CHIP RES. 1K 0402 1/16W 1%</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
     <t>CJS-1200TA</t>
   </si>
   <si>
-    <t>INTERR. SLITTA ON-ON DA C.S. CJS-1200TA NIDEC COPAL ELECTRONICS SMT</t>
-  </si>
-  <si>
     <t>SW-CJS1200TA</t>
   </si>
   <si>
@@ -428,9 +344,6 @@
     <t>SM6T6V8A</t>
   </si>
   <si>
-    <t>DIODO TVS TRANSIL UNIDIR. 600W 6.8V SM6T6V8A SMB SMT</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -443,9 +356,6 @@
     <t>MAX17225ELT+T</t>
   </si>
   <si>
-    <t>INTEGRATO MAX17225ELT+T MAXIM W-DFN6 SMT</t>
-  </si>
-  <si>
     <t>WDFN6-0200X0200</t>
   </si>
   <si>
@@ -455,9 +365,6 @@
     <t>TPS62748YFPT</t>
   </si>
   <si>
-    <t>INTEGRATO TPS62748YFPT TEXAS DSBGA8 SMT</t>
-  </si>
-  <si>
     <t>XFBGA8</t>
   </si>
   <si>
@@ -470,21 +377,12 @@
     <t>25/08/2020</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>MECHANICAL</t>
   </si>
   <si>
     <t>ASS1</t>
   </si>
   <si>
-    <t>KNOB M2.5x4</t>
-  </si>
-  <si>
-    <t>VITE TCEI 2.5X4 ESAGONO INCASSATO A2 INOX</t>
-  </si>
-  <si>
     <t>NOT MOUNTED</t>
   </si>
   <si>
@@ -500,9 +398,6 @@
     <t>CHIP CAP.TANT. 100uF 6.3V 10% CASE A F930J107KAA AVX</t>
   </si>
   <si>
-    <t>D-478-8152-1-ND</t>
-  </si>
-  <si>
     <t>CS-T-A</t>
   </si>
   <si>
@@ -524,9 +419,6 @@
     <t>BAV99BRVA-7</t>
   </si>
   <si>
-    <t>DIODO ARRAY 0.2A 75V BAV99BRVA-7 SOT563 DIODES SMT</t>
-  </si>
-  <si>
     <t>-65°..+150°</t>
   </si>
   <si>
@@ -545,17 +437,110 @@
     <t>R323,R324</t>
   </si>
   <si>
-    <t>CHIP RES. 0402</t>
-  </si>
-  <si>
     <t>Blues Inc</t>
+  </si>
+  <si>
+    <t>CHIP CERAMIC CAPACITOR 100nF 16V 10% X7R 0402</t>
+  </si>
+  <si>
+    <t>CHIP CERAMIC CAPACITOR 10uF 6.3V 20% X5R 0402</t>
+  </si>
+  <si>
+    <t>CHIP CERAMIC CAPACITOR 47uF 16V 20% X5R 1206</t>
+  </si>
+  <si>
+    <t>CHIP CERAMIC CAPACITOR 4.7uF 6.3V 20% X5R 0402</t>
+  </si>
+  <si>
+    <t>CHIP CERAMIC CAPACITOR 10uF 10V 10% X5R 0603</t>
+  </si>
+  <si>
+    <t>CHIP CERAMIC CAPACITOR 10nF 1000V 10% X7R 1206</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 3A 100V STPS3H100U SMB SMT</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 10A 45V FSV1045V TO277-3 SMT</t>
+  </si>
+  <si>
+    <t>DIODE TVS TRANSIL UNIDIR. 600W 6.8V SM6T6V8A SMB SMT</t>
+  </si>
+  <si>
+    <t>DIODE ARRAY 0.2A 75V BAV99BRVA-7 SOT563 DIODES SMT</t>
+  </si>
+  <si>
+    <t>FAST BLOW FUSE 1.5A 32V 0603 SF-0603F150-2 BOURNS SMT</t>
+  </si>
+  <si>
+    <t>FAST BLOW FUSE 3.5A 32V 0603 0603SFV350F/32-2 LITTELFUSE SMT</t>
+  </si>
+  <si>
+    <t>CONNECTOR USB F/90° TIPO MICRO-B C.S. 10118192-0001LF FCI SMT</t>
+  </si>
+  <si>
+    <t>CONNECTOR M.2 75P M/90° P=0.5 MDT420E01001 AMPHENOL SMT</t>
+  </si>
+  <si>
+    <t>HEADER STRIP 9 PIN</t>
+  </si>
+  <si>
+    <t>HEADER STRIP 1P M/D P=2.54 CH3140V100</t>
+  </si>
+  <si>
+    <t>INDUCTOR 2.2uH 1.5A 20% 0806 1285AS-H-2R2M=P2 MURATA SMT</t>
+  </si>
+  <si>
+    <t>INDUCTOR 2.2 uH 3.1A 20% XFL4020-222MEC COILCRAFT SMT</t>
+  </si>
+  <si>
+    <t>ROUND STANDOFF STEEL 5.1X2.5 9774025151R W.E SMT</t>
+  </si>
+  <si>
+    <t>RESISTOR NETWORK 8R sing. 100R 5% 1506 CAY16-101J8LF BOURNS SMT</t>
+  </si>
+  <si>
+    <t>CHIP RESISTOR 82K 0402 1/16W 1%</t>
+  </si>
+  <si>
+    <t>CHIP RESISTOR 10M 0402 1/8W 5%</t>
+  </si>
+  <si>
+    <t>CHIP RESISTOR 1M 1206 1/4W 1%</t>
+  </si>
+  <si>
+    <t>CHIP RESISTOR 0R 0805 1/8W 5% ANTI-SULFUR</t>
+  </si>
+  <si>
+    <t>CHIP RESISTOR 0R 0402 1/16W 1%</t>
+  </si>
+  <si>
+    <t>CHIP RESISTOR 1K 0402 1/16W 1%</t>
+  </si>
+  <si>
+    <t>CHIP RESISTOR 0402</t>
+  </si>
+  <si>
+    <t>SWITCH SLIDE SPDT ON-ON. CJS-1200TA NIDEC COPAL ELECTRONICS SMT</t>
+  </si>
+  <si>
+    <t>IC MAX17225ELT+T MAXIM W-DFN6 SMT</t>
+  </si>
+  <si>
+    <t>IC TPS62748YFPT TEXAS DSBGA8 SMT</t>
+  </si>
+  <si>
+    <t>SCREW M2.5x4</t>
+  </si>
+  <si>
+    <t>DIN 912 M2.5x4 HEX SOCKET HEAD CAP SCREW, FULLY-THREADED SHAFT, A2 STAINLESS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -699,13 +684,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1152,7 +1130,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1169,17 +1147,11 @@
     <xf numFmtId="49" fontId="20" fillId="33" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="33" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1202,22 +1174,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="35" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="35" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="22" fillId="35" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="21" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1226,13 +1189,19 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1244,70 +1213,53 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1600,111 +1552,100 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="41.5" style="16" customWidth="1"/>
-    <col min="4" max="5" width="31.1640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="53" style="16" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35" style="16" customWidth="1"/>
-    <col min="11" max="11" width="15" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.33203125" style="2"/>
+    <col min="1" max="1" width="26.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1718,7 +1659,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>4</v>
@@ -1727,1215 +1668,995 @@
         <v>5</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>1</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>2</v>
+      </c>
+      <c r="B8" s="15">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>3</v>
+      </c>
+      <c r="B9" s="15">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>4</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>5</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>6</v>
+      </c>
+      <c r="B12" s="15">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>7</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>8</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
         <v>9</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="6" t="s">
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
-        <v>1</v>
-      </c>
-      <c r="B7" s="19">
-        <v>1</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="B16" s="15">
+        <v>1</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>11</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>12</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>13</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>14</v>
+      </c>
+      <c r="B20" s="15">
+        <v>1</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
         <v>15</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="B21" s="15">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
         <v>16</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
+      <c r="B22" s="15">
+        <v>1</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
         <v>17</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="B23" s="15">
+        <v>1</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
         <v>18</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21">
-        <v>47493</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="B24" s="15">
+        <v>1</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
+        <v>19</v>
+      </c>
+      <c r="B25" s="15">
+        <v>1</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="15">
+        <v>20</v>
+      </c>
+      <c r="B26" s="15">
         <v>2</v>
       </c>
-      <c r="B8" s="19">
-        <v>5</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="C26" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
         <v>21</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20" t="s">
+      <c r="B27" s="15">
+        <v>1</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
         <v>22</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="20" t="s">
+      <c r="B28" s="15">
+        <v>1</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
         <v>23</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="B29" s="15">
+        <v>1</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="15">
         <v>24</v>
       </c>
-      <c r="K8" s="21">
-        <v>22452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
-        <v>3</v>
-      </c>
-      <c r="B9" s="19">
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
+        <v>25</v>
+      </c>
+      <c r="B31" s="15">
         <v>2</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="C31" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="15">
         <v>26</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20" t="s">
+      <c r="B32" s="15">
+        <v>1</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
         <v>27</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="B33" s="15">
+        <v>1</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="15">
         <v>28</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="21">
-        <v>39310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
-        <v>4</v>
-      </c>
-      <c r="B10" s="19">
-        <v>1</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="B34" s="15">
+        <v>1</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="15">
         <v>29</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="B35" s="15">
+        <v>1</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="15">
         <v>30</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="21">
-        <v>38401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
-        <v>5</v>
-      </c>
-      <c r="B11" s="19">
-        <v>1</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="21">
-        <v>32468</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
-        <v>6</v>
-      </c>
-      <c r="B12" s="19">
-        <v>2</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="21">
-        <v>28168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
-        <v>7</v>
-      </c>
-      <c r="B13" s="19">
-        <v>1</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="21">
-        <v>28470</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
-        <v>8</v>
-      </c>
-      <c r="B14" s="19">
-        <v>1</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="21">
-        <v>40665</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
-        <v>9</v>
-      </c>
-      <c r="B15" s="19">
-        <v>1</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="21">
-        <v>42269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
-        <v>10</v>
-      </c>
-      <c r="B16" s="19">
-        <v>1</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="21">
-        <v>32505</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
-        <v>11</v>
-      </c>
-      <c r="B17" s="19">
-        <v>1</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="21">
-        <v>40054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
-        <v>12</v>
-      </c>
-      <c r="B18" s="19">
-        <v>1</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="20" t="s">
+      <c r="B36" s="15">
+        <v>1</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="21">
-        <v>40056</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
-        <v>13</v>
-      </c>
-      <c r="B19" s="19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" s="21">
-        <v>44633</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
-        <v>14</v>
-      </c>
-      <c r="B20" s="19">
-        <v>1</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" s="21">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="19">
-        <v>15</v>
-      </c>
-      <c r="B21" s="19">
-        <v>1</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="K21" s="21">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="19">
-        <v>16</v>
-      </c>
-      <c r="B22" s="19">
-        <v>1</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="K22" s="21">
-        <v>42807</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="19">
-        <v>17</v>
-      </c>
-      <c r="B23" s="19">
-        <v>1</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="K23" s="21">
-        <v>42400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
-        <v>18</v>
-      </c>
-      <c r="B24" s="19">
-        <v>1</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="K24" s="21">
-        <v>44635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="19">
-        <v>19</v>
-      </c>
-      <c r="B25" s="19">
-        <v>1</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K25" s="21">
-        <v>41965</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
-        <v>20</v>
-      </c>
-      <c r="B26" s="19">
-        <v>2</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="K26" s="21">
-        <v>40062</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="19">
-        <v>21</v>
-      </c>
-      <c r="B27" s="19">
-        <v>1</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="K27" s="21">
-        <v>40683</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="19">
-        <v>22</v>
-      </c>
-      <c r="B28" s="19">
-        <v>1</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20" t="s">
+      <c r="H36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" s="21">
-        <v>37511</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="19">
-        <v>23</v>
-      </c>
-      <c r="B29" s="19">
-        <v>1</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="K29" s="21">
-        <v>28883</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="19">
-        <v>24</v>
-      </c>
-      <c r="B30" s="19">
-        <v>1</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="K30" s="21">
-        <v>34531</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="19">
-        <v>25</v>
-      </c>
-      <c r="B31" s="19">
-        <v>2</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="K31" s="21">
-        <v>25681</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="19">
-        <v>26</v>
-      </c>
-      <c r="B32" s="19">
-        <v>1</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="K32" s="21">
-        <v>25126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="19">
-        <v>27</v>
-      </c>
-      <c r="B33" s="19">
-        <v>1</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="K33" s="21">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="19">
-        <v>28</v>
-      </c>
-      <c r="B34" s="19">
-        <v>1</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K34" s="21">
-        <v>14165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="19">
-        <v>29</v>
-      </c>
-      <c r="B35" s="19">
-        <v>1</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="K35" s="21">
-        <v>42404</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="19">
-        <v>30</v>
-      </c>
-      <c r="B36" s="19">
-        <v>1</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="K36" s="21">
-        <v>42813</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="15">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="13">
         <f>SUM(B7:B36)</f>
         <v>38</v>
       </c>
-      <c r="H37" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="19">
-        <v>1</v>
-      </c>
-      <c r="B41" s="19">
-        <v>1</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>147</v>
+    </row>
+    <row r="40" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="15">
+        <v>1</v>
+      </c>
+      <c r="B41" s="15">
+        <v>1</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="J41" s="20"/>
-      <c r="K41" s="21">
-        <v>48266</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="15">
+        <v>165</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="13">
         <f>SUM(B40:B41)</f>
         <v>1</v>
       </c>
-      <c r="H42" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="23">
-        <v>1</v>
-      </c>
-      <c r="B46" s="23">
-        <v>1</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="H46" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="K46" s="25"/>
-    </row>
-    <row r="47" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="23">
+    </row>
+    <row r="45" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="18">
+        <v>1</v>
+      </c>
+      <c r="B46" s="18">
+        <v>1</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="18">
         <v>2</v>
       </c>
-      <c r="B47" s="23">
-        <v>1</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="K47" s="25">
-        <v>46852</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="23">
+      <c r="B47" s="18">
+        <v>1</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="18">
         <v>3</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="18">
         <v>4</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="18">
+        <v>4</v>
+      </c>
+      <c r="B49" s="18">
+        <v>4</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="18">
+        <v>5</v>
+      </c>
+      <c r="B50" s="18">
+        <v>2</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="H48" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="K48" s="25">
-        <v>40591</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="23">
-        <v>4</v>
-      </c>
-      <c r="B49" s="23">
-        <v>4</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="K49" s="25"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="23">
-        <v>5</v>
-      </c>
-      <c r="B50" s="23">
-        <v>2</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="K50" s="25"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2949,11 +2670,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H7:H4997">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>AND($H7&lt;&gt;"FAE",$C7&lt;&gt;"",$D7&lt;&gt;"NU",$D7&lt;&gt;"TPS")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="34" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3159,13 +2875,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFE3929D-FBFE-474F-855F-50EB1800E45E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFE3929D-FBFE-474F-855F-50EB1800E45E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="aee85ee7-dfdd-4e89-b8b9-0bcca5b04b05"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6452661B-97C3-4063-8EA8-44EE354C5B99}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6452661B-97C3-4063-8EA8-44EE354C5B99}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB8AFB8E-6481-4173-A0C0-62A845AAA98E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB8AFB8E-6481-4173-A0C0-62A845AAA98E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>